--- a/Deneme.xlsx
+++ b/Deneme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04eecaba32d771a4/Belgeler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_bay\IdeaProjects\cydeo-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A09CAA1-4126-4C56-822B-028A8755130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BFDF79-8DDF-45B2-9A45-D35FF2C4A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00C10284-23E7-41E9-B92D-54FEE99F5D5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t xml:space="preserve">username </t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>UserUser</t>
+  </si>
+  <si>
+    <t>helpdesk2@cybertekschool.com</t>
+  </si>
+  <si>
+    <t>helpdesk3@cybertekschool.com</t>
+  </si>
+  <si>
+    <t>helpdesk4@cybertekschool.com</t>
+  </si>
+  <si>
+    <t>helpdesk5@cybertekschool.com</t>
+  </si>
+  <si>
+    <t>helpdesk6@cybertekschool.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +487,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,8 +534,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -536,8 +551,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -553,8 +568,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -570,8 +585,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -587,8 +602,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -606,8 +621,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A9D1A243-8FCE-445A-8629-A7A3FFE72980}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{17B5BA60-A65F-4E0B-A66F-AC13AB9C8406}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{5402BB23-6362-4352-BB7E-A72115721034}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{97D9F7C3-F055-4740-8FEB-493AF9718FD2}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{08F37C7F-04EF-42EF-8186-28A67FFB6347}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{DCEC6907-5F24-43F3-8B84-E095027402C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Deneme.xlsx
+++ b/Deneme.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_bay\IdeaProjects\cydeo-cucumber-junit\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t xml:space="preserve">username </t>
   </si>
@@ -111,12 +111,16 @@
   </si>
   <si>
     <t>helpdesk6@cybertekschool.com</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,11 +496,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6328125"/>
+    <col min="2" max="2" customWidth="true" width="18.81640625"/>
+    <col min="3" max="3" customWidth="true" width="16.7265625"/>
+    <col min="4" max="4" customWidth="true" width="20.54296875"/>
+    <col min="5" max="5" customWidth="true" width="17.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -530,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -547,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -564,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -581,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -598,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -615,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
